--- a/musicDB/tableSchema.xlsx
+++ b/musicDB/tableSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kev/00_GitHub Repositories/digitalcrafts/musicDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A1E976-92B0-084F-9FE9-AD2106044C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33EE392-15FB-C748-9FEA-F8A7B924EEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21380" yWindow="-16060" windowWidth="11220" windowHeight="14700" xr2:uid="{B842C728-84D1-3546-9B19-5F9534E51466}"/>
+    <workbookView xWindow="16000" yWindow="2560" windowWidth="12320" windowHeight="14840" xr2:uid="{B842C728-84D1-3546-9B19-5F9534E51466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Artist</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Collaborators</t>
   </si>
 </sst>
 </file>
@@ -415,15 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052487E3-DED4-FB4B-B9B7-51CD98D41E45}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -495,6 +499,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
